--- a/data/drc.xlsx
+++ b/data/drc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\drc-python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895C7ED9-27FB-48A7-989E-95762357D3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0657DDC-22DF-47EC-A813-9E482C0F7F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{8844D130-5140-426D-A6E3-0A4AF4DF5C81}"/>
   </bookViews>
@@ -737,7 +737,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -907,7 +907,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>97</v>

--- a/data/drc.xlsx
+++ b/data/drc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\drc-python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0657DDC-22DF-47EC-A813-9E482C0F7F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A412FFC-9249-40F7-9D49-9441B458490E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{8844D130-5140-426D-A6E3-0A4AF4DF5C81}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="143">
   <si>
     <t>id</t>
   </si>
@@ -381,6 +381,90 @@
   </si>
   <si>
     <t>04300935</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>Baz</t>
+  </si>
+  <si>
+    <t>Dvo</t>
+  </si>
+  <si>
+    <t>Els</t>
+  </si>
+  <si>
+    <t>Fil</t>
+  </si>
+  <si>
+    <t>Fra</t>
+  </si>
+  <si>
+    <t>Hoj</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Kos</t>
+  </si>
+  <si>
+    <t>Kot</t>
+  </si>
+  <si>
+    <t>Kuc</t>
+  </si>
+  <si>
+    <t>Kva</t>
+  </si>
+  <si>
+    <t>Opr</t>
+  </si>
+  <si>
+    <t>Rad</t>
+  </si>
+  <si>
+    <t>Sed</t>
+  </si>
+  <si>
+    <t>Sob</t>
+  </si>
+  <si>
+    <t>Sta</t>
+  </si>
+  <si>
+    <t>Ste</t>
+  </si>
+  <si>
+    <t>BoO</t>
+  </si>
+  <si>
+    <t>HaJ</t>
+  </si>
+  <si>
+    <t>HaR</t>
+  </si>
+  <si>
+    <t>VaJ</t>
+  </si>
+  <si>
+    <t>BoH</t>
+  </si>
+  <si>
+    <t>VaM</t>
+  </si>
+  <si>
+    <t>Zbo</t>
+  </si>
+  <si>
+    <t>tee</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>yellow</t>
   </si>
 </sst>
 </file>
@@ -734,20 +818,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED74D75E-C0A6-40F4-9B79-8D9FA22535DC}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="26.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,19 +842,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="H1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -780,20 +867,23 @@
       <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G2">
+      <c r="F2">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -803,17 +893,23 @@
       <c r="C3" t="s">
         <v>79</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G3">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -823,17 +919,23 @@
       <c r="C4" t="s">
         <v>63</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G4">
+      <c r="F4">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -843,17 +945,23 @@
       <c r="C5" t="s">
         <v>74</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G5">
+      <c r="F5">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -863,17 +971,23 @@
       <c r="C6" t="s">
         <v>85</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G6">
+      <c r="F6">
         <v>24.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -883,17 +997,23 @@
       <c r="C7" t="s">
         <v>81</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G7">
+      <c r="F7">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -903,20 +1023,23 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G8">
+      <c r="F8">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -926,17 +1049,23 @@
       <c r="C9" t="s">
         <v>68</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G9">
+      <c r="F9">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -946,14 +1075,20 @@
       <c r="C10" t="s">
         <v>82</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -963,17 +1098,23 @@
       <c r="C11" t="s">
         <v>72</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G11">
+      <c r="F11">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -983,17 +1124,23 @@
       <c r="C12" t="s">
         <v>64</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G12">
+      <c r="F12">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1003,17 +1150,23 @@
       <c r="C13" t="s">
         <v>80</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G13">
+      <c r="F13">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1023,17 +1176,23 @@
       <c r="C14" t="s">
         <v>75</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G14">
+      <c r="F14">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1043,17 +1202,23 @@
       <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G15">
+      <c r="F15">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1063,20 +1228,23 @@
       <c r="C16" t="s">
         <v>69</v>
       </c>
-      <c r="D16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G16">
+      <c r="F16">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1086,17 +1254,23 @@
       <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G17">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>31.1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1106,20 +1280,23 @@
       <c r="C18" t="s">
         <v>62</v>
       </c>
-      <c r="D18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G18">
+      <c r="F18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1129,17 +1306,23 @@
       <c r="C19" t="s">
         <v>67</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G19">
+      <c r="F19">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1149,17 +1332,23 @@
       <c r="C20" t="s">
         <v>71</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G20">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>8.5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1169,17 +1358,23 @@
       <c r="C21" t="s">
         <v>76</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G21">
+      <c r="F21">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1189,17 +1384,23 @@
       <c r="C22" t="s">
         <v>84</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G22">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <v>23.5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1209,105 +1410,98 @@
       <c r="C23" t="s">
         <v>83</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G23">
+      <c r="F23">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24">
+        <v>14.7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25">
+        <v>10.8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s">
         <v>73</v>
       </c>
-      <c r="D28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G28">
+      <c r="F26">
         <v>10.9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/drc.xlsx
+++ b/data/drc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\drc-python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A412FFC-9249-40F7-9D49-9441B458490E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7B7348-B127-44A1-A9F8-15B32F05398C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{8844D130-5140-426D-A6E3-0A4AF4DF5C81}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="133">
   <si>
     <t>id</t>
   </si>
@@ -47,9 +47,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>nickname</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Ján Franek</t>
   </si>
   <si>
-    <t>Jano</t>
-  </si>
-  <si>
     <t>Bazger</t>
   </si>
   <si>
@@ -134,12 +128,6 @@
     <t>Stefl</t>
   </si>
   <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
     <t>ValaJ</t>
   </si>
   <si>
@@ -167,12 +155,6 @@
     <t>jan-kvasnicka@centrum.cz</t>
   </si>
   <si>
-    <t>jan.franek@centrum.cz</t>
-  </si>
-  <si>
-    <t>jan.franek@me.cz</t>
-  </si>
-  <si>
     <t>jan.hon@atlas.cz</t>
   </si>
   <si>
@@ -297,18 +279,6 @@
   </si>
   <si>
     <t>lubomirsedlak@seznam.cz</t>
-  </si>
-  <si>
-    <t>Bazy</t>
-  </si>
-  <si>
-    <t>Gerry</t>
-  </si>
-  <si>
-    <t>Igy</t>
-  </si>
-  <si>
-    <t>Zbořka</t>
   </si>
   <si>
     <t>02802397</t>
@@ -821,7 +791,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -842,238 +812,238 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F2">
-        <v>4.3</v>
+        <v>10.9</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F4">
         <v>7.2</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F5">
         <v>25.2</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="F6">
         <v>24.4</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F7">
         <v>15.1</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F8">
         <v>11.7</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F9">
         <v>17.7</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1082,426 +1052,426 @@
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F11">
         <v>21.2</v>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H11" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F12">
         <v>18.2</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F13">
         <v>20.2</v>
       </c>
       <c r="G13" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H13" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F14">
         <v>17.2</v>
       </c>
       <c r="G14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F15">
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F16">
         <v>10.6</v>
       </c>
       <c r="G16" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F17">
-        <v>31.1</v>
+        <v>30.2</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F18">
         <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H18" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F19">
         <v>18.100000000000001</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H19" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F20">
         <v>8.5</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H20" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F21">
         <v>14.8</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H21" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F22">
         <v>23.5</v>
       </c>
       <c r="G22" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H22" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F23">
         <v>10.4</v>
       </c>
       <c r="G23" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H23" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F24">
         <v>14.7</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F25">
         <v>10.8</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="H25" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F26">
         <v>10.9</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H26" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
